--- a/Sheets/ReturnSheet.xlsx
+++ b/Sheets/ReturnSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,13 +57,16 @@
     <t>Сдал:</t>
   </si>
   <si>
-    <t xml:space="preserve">Накладная на возврат оборудования </t>
+    <t>Накладная на возврат оборудования</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,21 +83,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -171,11 +168,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -197,10 +224,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +551,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -531,50 +578,60 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
+      <c r="A14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -582,15 +639,25 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>